--- a/assets/utils/qr codes.xlsx
+++ b/assets/utils/qr codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS TUF\Documents\GitHub\navit\assets\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D65B2A-F8F9-4ED1-BB81-001E9EE8598F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912CB6E-4A0E-4BA0-93C1-1D2F18406DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19092" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -1529,288 +1529,382 @@
 <webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <webImageSrd>
     <address r:id="rId1"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId2"/>
+    <blip r:id="rId2"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId3"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId4"/>
+    <blip r:id="rId4"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId5"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId6"/>
+    <blip r:id="rId6"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId7"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId8"/>
+    <blip r:id="rId8"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId9"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId10"/>
+    <blip r:id="rId10"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId11"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId12"/>
+    <blip r:id="rId12"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId13"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId14"/>
+    <blip r:id="rId14"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId15"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId16"/>
+    <blip r:id="rId16"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId17"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId18"/>
+    <blip r:id="rId18"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId19"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId20"/>
+    <blip r:id="rId20"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId21"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId22"/>
+    <blip r:id="rId22"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId23"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId24"/>
+    <blip r:id="rId24"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId25"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId26"/>
+    <blip r:id="rId26"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId27"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId28"/>
+    <blip r:id="rId28"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId29"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId30"/>
+    <blip r:id="rId30"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId31"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId32"/>
+    <blip r:id="rId32"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId33"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId34"/>
+    <blip r:id="rId34"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId35"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId36"/>
+    <blip r:id="rId36"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId37"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId38"/>
+    <blip r:id="rId38"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId39"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId40"/>
+    <blip r:id="rId40"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId41"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId42"/>
+    <blip r:id="rId42"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId43"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId44"/>
+    <blip r:id="rId44"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId45"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId46"/>
+    <blip r:id="rId46"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId47"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId48"/>
+    <blip r:id="rId48"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId49"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId50"/>
+    <blip r:id="rId50"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId51"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId52"/>
+    <blip r:id="rId52"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId53"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId54"/>
+    <blip r:id="rId54"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId55"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId56"/>
+    <blip r:id="rId56"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId57"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId58"/>
+    <blip r:id="rId58"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId59"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId60"/>
+    <blip r:id="rId60"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId61"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId62"/>
+    <blip r:id="rId62"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId63"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId64"/>
+    <blip r:id="rId64"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId65"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId66"/>
+    <blip r:id="rId66"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId67"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId68"/>
+    <blip r:id="rId68"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId69"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId70"/>
+    <blip r:id="rId70"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId71"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId72"/>
+    <blip r:id="rId72"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId73"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId74"/>
+    <blip r:id="rId74"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId75"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId76"/>
+    <blip r:id="rId76"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId77"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId78"/>
+    <blip r:id="rId78"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId79"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId80"/>
+    <blip r:id="rId80"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId81"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId82"/>
+    <blip r:id="rId82"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId83"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId84"/>
+    <blip r:id="rId84"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId85"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId86"/>
+    <blip r:id="rId86"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId87"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId88"/>
+    <blip r:id="rId88"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId89"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId90"/>
+    <blip r:id="rId90"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId91"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId92"/>
+    <blip r:id="rId92"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId93"/>
-  </webImageSrd>
-  <webImageSrd>
-    <address r:id="rId94"/>
+    <blip r:id="rId94"/>
   </webImageSrd>
   <webImageSrd>
     <address r:id="rId95"/>
+    <blip r:id="rId96"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId97"/>
+    <blip r:id="rId98"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId99"/>
+    <blip r:id="rId100"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId101"/>
+    <blip r:id="rId102"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId103"/>
+    <blip r:id="rId104"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId105"/>
+    <blip r:id="rId106"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId107"/>
+    <blip r:id="rId108"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId109"/>
+    <blip r:id="rId110"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId111"/>
+    <blip r:id="rId112"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId113"/>
+    <blip r:id="rId114"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId115"/>
+    <blip r:id="rId116"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId117"/>
+    <blip r:id="rId118"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId119"/>
+    <blip r:id="rId120"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId121"/>
+    <blip r:id="rId122"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId123"/>
+    <blip r:id="rId124"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId125"/>
+    <blip r:id="rId126"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId127"/>
+    <blip r:id="rId128"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId129"/>
+    <blip r:id="rId130"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId131"/>
+    <blip r:id="rId132"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId133"/>
+    <blip r:id="rId134"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId135"/>
+    <blip r:id="rId136"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId137"/>
+    <blip r:id="rId138"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId139"/>
+    <blip r:id="rId140"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId141"/>
+    <blip r:id="rId142"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId143"/>
+    <blip r:id="rId144"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId145"/>
+    <blip r:id="rId146"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId147"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId148"/>
+    <blip r:id="rId149"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId150"/>
+    <blip r:id="rId151"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId152"/>
+    <blip r:id="rId153"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId154"/>
+    <blip r:id="rId155"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId156"/>
+    <blip r:id="rId157"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId158"/>
+    <blip r:id="rId159"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId160"/>
+    <blip r:id="rId161"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId162"/>
+    <blip r:id="rId163"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId164"/>
+    <blip r:id="rId165"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId166"/>
+    <blip r:id="rId167"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId168"/>
+    <blip r:id="rId169"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId170"/>
+    <blip r:id="rId171"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId172"/>
+    <blip r:id="rId173"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId174"/>
+    <blip r:id="rId175"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId176"/>
+    <blip r:id="rId177"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId178"/>
+    <blip r:id="rId179"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId180"/>
+    <blip r:id="rId181"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId182"/>
+    <blip r:id="rId183"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId184"/>
+    <blip r:id="rId185"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId186"/>
+    <blip r:id="rId187"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId188"/>
+    <blip r:id="rId189"/>
   </webImageSrd>
 </webImagesSrd>
 </file>
@@ -1818,571 +1912,571 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="95">
   <rv s="0">
+    <v>0</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>29</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>30</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>31</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>32</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>33</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>34</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>35</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>36</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>37</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>38</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>39</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>40</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>41</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>42</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>43</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>44</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>45</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>46</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>47</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>48</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>49</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>50</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>51</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>52</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>53</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>54</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>55</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>56</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>57</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>58</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>59</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>60</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>61</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>62</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>63</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>64</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>65</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>66</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>67</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>68</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>69</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>70</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>71</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>72</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
     <v>-1</v>
     <v>1</v>
     <v>0</v>
     <v>0</v>
   </rv>
   <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
-    <v>1</v>
-    <v>0</v>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <v>-1</v>
+    <v>74</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>75</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>76</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>77</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>78</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>79</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>80</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>81</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>82</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>83</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>84</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>85</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>86</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>87</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>88</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>89</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>90</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>91</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>92</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>93</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>94</v>
     <v>1</v>
     <v>0</v>
     <v>0</v>
@@ -2686,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54CE7D-C1C7-45AB-9AF4-8D014C763D03}">
   <dimension ref="A1:F228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="87.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2696,7 +2790,7 @@
     <col min="2" max="2" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="117.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
@@ -2732,11 +2826,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f t="shared" ref="D2:D33" si="0">"https://navit.vercel.app/home?source=" &amp; A2</f>
+        <f t="shared" ref="D2:E33" si="0">"https://navit.vercel.app/home?source=" &amp; A2</f>
         <v>https://navit.vercel.app/home?source=118</v>
       </c>
       <c r="E2" s="6" t="e" vm="1">
-        <f t="shared" ref="E2:E33" si="1">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;D2&amp;"&gt;")</f>
+        <f>_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data="&amp;D2&amp;"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="5" t="str">
@@ -2759,7 +2853,7 @@
         <v>https://navit.vercel.app/home?source=4122</v>
       </c>
       <c r="E3" s="6" t="e" vm="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E3:E66" si="1">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data="&amp;D3&amp;"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="F3" s="5" t="str">
@@ -3039,7 +3133,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f>"https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=" &amp; _xlfn.ENCODEURL(D15)</f>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3006</v>
       </c>
     </row>
@@ -3472,7 +3566,7 @@
         <v>https://navit.vercel.app/home?source=4073</v>
       </c>
       <c r="E34" s="6" t="e" vm="33">
-        <f t="shared" ref="E34:E65" si="4">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;D34&amp;"&gt;")</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F34" s="5" t="str">
@@ -3495,7 +3589,7 @@
         <v>https://navit.vercel.app/home?source=3001</v>
       </c>
       <c r="E35" s="6" t="e" vm="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F35" s="5" t="str">
@@ -3518,7 +3612,7 @@
         <v>https://navit.vercel.app/home?source=6003</v>
       </c>
       <c r="E36" s="6" t="e" vm="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F36" s="5" t="str">
@@ -3541,7 +3635,7 @@
         <v>https://navit.vercel.app/home?source=5006</v>
       </c>
       <c r="E37" s="6" t="e" vm="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F37" s="5" t="str">
@@ -3564,7 +3658,7 @@
         <v>https://navit.vercel.app/home?source=5025</v>
       </c>
       <c r="E38" s="6" t="e" vm="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F38" s="5" t="str">
@@ -3587,7 +3681,7 @@
         <v>https://navit.vercel.app/home?source=6087</v>
       </c>
       <c r="E39" s="6" t="e" vm="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F39" s="5" t="str">
@@ -3610,7 +3704,7 @@
         <v>https://navit.vercel.app/home?source=5017</v>
       </c>
       <c r="E40" s="6" t="e" vm="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F40" s="5" t="str">
@@ -3633,7 +3727,7 @@
         <v>https://navit.vercel.app/home?source=2127</v>
       </c>
       <c r="E41" s="6" t="e" vm="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F41" s="5" t="str">
@@ -3656,7 +3750,7 @@
         <v>https://navit.vercel.app/home?source=2119</v>
       </c>
       <c r="E42" s="6" t="e" vm="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F42" s="5" t="str">
@@ -3679,7 +3773,7 @@
         <v>https://navit.vercel.app/home?source=6101</v>
       </c>
       <c r="E43" s="6" t="e" vm="42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F43" s="5" t="str">
@@ -3702,7 +3796,7 @@
         <v>https://navit.vercel.app/home?source=1041</v>
       </c>
       <c r="E44" s="6" t="e" vm="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F44" s="5" t="str">
@@ -3725,7 +3819,7 @@
         <v>https://navit.vercel.app/home?source=6017</v>
       </c>
       <c r="E45" s="6" t="e" vm="44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F45" s="5" t="str">
@@ -3748,7 +3842,7 @@
         <v>https://navit.vercel.app/home?source=3122</v>
       </c>
       <c r="E46" s="6" t="e" vm="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F46" s="5" t="str">
@@ -3771,7 +3865,7 @@
         <v>https://navit.vercel.app/home?source=1054</v>
       </c>
       <c r="E47" s="6" t="e" vm="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F47" s="5" t="str">
@@ -3794,7 +3888,7 @@
         <v>https://navit.vercel.app/home?source=6006</v>
       </c>
       <c r="E48" s="6" t="e" vm="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F48" s="5" t="str">
@@ -3817,7 +3911,7 @@
         <v>https://navit.vercel.app/home?source=2003</v>
       </c>
       <c r="E49" s="6" t="e" vm="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F49" s="5" t="str">
@@ -3840,7 +3934,7 @@
         <v>https://navit.vercel.app/home?source=2001</v>
       </c>
       <c r="E50" s="6" t="e" vm="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F50" s="5" t="str">
@@ -3863,7 +3957,7 @@
         <v>https://navit.vercel.app/home?source=1031</v>
       </c>
       <c r="E51" s="6" t="e" vm="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F51" s="5" t="str">
@@ -3886,7 +3980,7 @@
         <v>https://navit.vercel.app/home?source=191</v>
       </c>
       <c r="E52" s="6" t="e" vm="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F52" s="5" t="str">
@@ -3909,7 +4003,7 @@
         <v>https://navit.vercel.app/home?source=0</v>
       </c>
       <c r="E53" s="6" t="e" vm="52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F53" s="5" t="str">
@@ -3932,7 +4026,7 @@
         <v>https://navit.vercel.app/home?source=2075</v>
       </c>
       <c r="E54" s="6" t="e" vm="53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F54" s="5" t="str">
@@ -3955,7 +4049,7 @@
         <v>https://navit.vercel.app/home?source=2071</v>
       </c>
       <c r="E55" s="6" t="e" vm="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F55" s="5" t="str">
@@ -3978,7 +4072,7 @@
         <v>https://navit.vercel.app/home?source=2085</v>
       </c>
       <c r="E56" s="6" t="e" vm="55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F56" s="5" t="str">
@@ -4001,7 +4095,7 @@
         <v>https://navit.vercel.app/home?source=2087</v>
       </c>
       <c r="E57" s="6" t="e" vm="56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F57" s="5" t="str">
@@ -4024,7 +4118,7 @@
         <v>https://navit.vercel.app/home?source=2089</v>
       </c>
       <c r="E58" s="6" t="e" vm="57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F58" s="5" t="str">
@@ -4047,7 +4141,7 @@
         <v>https://navit.vercel.app/home?source=2033</v>
       </c>
       <c r="E59" s="6" t="e" vm="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F59" s="5" t="str">
@@ -4070,7 +4164,7 @@
         <v>https://navit.vercel.app/home?source=2036</v>
       </c>
       <c r="E60" s="6" t="e" vm="59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F60" s="5" t="str">
@@ -4093,7 +4187,7 @@
         <v>https://navit.vercel.app/home?source=1001</v>
       </c>
       <c r="E61" s="6" t="e" vm="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F61" s="5" t="str">
@@ -4116,7 +4210,7 @@
         <v>https://navit.vercel.app/home?source=1003</v>
       </c>
       <c r="E62" s="6" t="e" vm="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F62" s="5" t="str">
@@ -4139,7 +4233,7 @@
         <v>https://navit.vercel.app/home?source=4031</v>
       </c>
       <c r="E63" s="6" t="e" vm="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F63" s="5" t="str">
@@ -4162,7 +4256,7 @@
         <v>https://navit.vercel.app/home?source=4041</v>
       </c>
       <c r="E64" s="6" t="e" vm="63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F64" s="5" t="str">
@@ -4185,7 +4279,7 @@
         <v>https://navit.vercel.app/home?source=5031</v>
       </c>
       <c r="E65" s="6" t="e" vm="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F65" s="5" t="str">
@@ -4204,11 +4298,11 @@
         <v>64</v>
       </c>
       <c r="D66" s="5" t="str">
-        <f t="shared" ref="D66:D96" si="5">"https://navit.vercel.app/home?source=" &amp; A66</f>
+        <f t="shared" ref="D66:D96" si="4">"https://navit.vercel.app/home?source=" &amp; A66</f>
         <v>https://navit.vercel.app/home?source=5041</v>
       </c>
       <c r="E66" s="6" t="e" vm="65">
-        <f t="shared" ref="E66:E96" si="6">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=&lt;"&amp;D66&amp;"&gt;")</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F66" s="5" t="str">
@@ -4227,15 +4321,15 @@
         <v>65</v>
       </c>
       <c r="D67" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>https://navit.vercel.app/home?source=6031</v>
       </c>
       <c r="E67" s="6" t="e" vm="66">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E67:E96" si="5">_xlfn.IMAGE("https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data="&amp;D67&amp;"")</f>
         <v>#VALUE!</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f t="shared" ref="F67:F96" si="7">"https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=" &amp; _xlfn.ENCODEURL(D67)</f>
+        <f t="shared" ref="F67:F96" si="6">"https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=" &amp; _xlfn.ENCODEURL(D67)</f>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D6031</v>
       </c>
     </row>
@@ -4250,15 +4344,15 @@
         <v>66</v>
       </c>
       <c r="D68" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=6041</v>
+      </c>
+      <c r="E68" s="6" t="e" vm="67">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=6041</v>
-      </c>
-      <c r="E68" s="6" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D6041</v>
       </c>
     </row>
@@ -4273,15 +4367,15 @@
         <v>67</v>
       </c>
       <c r="D69" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=2041</v>
+      </c>
+      <c r="E69" s="6" t="e" vm="68">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=2041</v>
-      </c>
-      <c r="E69" s="6" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D2041</v>
       </c>
     </row>
@@ -4296,15 +4390,15 @@
         <v>68</v>
       </c>
       <c r="D70" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=2031</v>
+      </c>
+      <c r="E70" s="6" t="e" vm="69">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=2031</v>
-      </c>
-      <c r="E70" s="6" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D2031</v>
       </c>
     </row>
@@ -4319,15 +4413,15 @@
         <v>69</v>
       </c>
       <c r="D71" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3041</v>
+      </c>
+      <c r="E71" s="6" t="e" vm="70">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3041</v>
-      </c>
-      <c r="E71" s="6" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3041</v>
       </c>
     </row>
@@ -4342,15 +4436,15 @@
         <v>70</v>
       </c>
       <c r="D72" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3031</v>
+      </c>
+      <c r="E72" s="6" t="e" vm="71">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3031</v>
-      </c>
-      <c r="E72" s="6" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3031</v>
       </c>
     </row>
@@ -4365,15 +4459,15 @@
         <v>72</v>
       </c>
       <c r="D73" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=1033</v>
+      </c>
+      <c r="E73" s="6" t="e" vm="72">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=1033</v>
-      </c>
-      <c r="E73" s="6" t="e" vm="72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D1033</v>
       </c>
     </row>
@@ -4388,15 +4482,15 @@
         <v>73</v>
       </c>
       <c r="D74" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=5101</v>
+      </c>
+      <c r="E74" s="6" t="e" vm="73">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=5101</v>
-      </c>
-      <c r="E74" s="6" t="e" vm="73">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D5101</v>
       </c>
     </row>
@@ -4411,15 +4505,15 @@
         <v>74</v>
       </c>
       <c r="D75" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=190"</v>
+      </c>
+      <c r="E75" s="6" t="e" vm="74">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=190"</v>
-      </c>
-      <c r="E75" s="6" t="e" vm="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D190%22</v>
       </c>
     </row>
@@ -4434,15 +4528,15 @@
         <v>75</v>
       </c>
       <c r="D76" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=5087</v>
+      </c>
+      <c r="E76" s="6" t="e" vm="75">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=5087</v>
-      </c>
-      <c r="E76" s="6" t="e" vm="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D5087</v>
       </c>
     </row>
@@ -4457,15 +4551,15 @@
         <v>76</v>
       </c>
       <c r="D77" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=4101</v>
+      </c>
+      <c r="E77" s="6" t="e" vm="76">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=4101</v>
-      </c>
-      <c r="E77" s="6" t="e" vm="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D4101</v>
       </c>
     </row>
@@ -4480,15 +4574,15 @@
         <v>77</v>
       </c>
       <c r="D78" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=5069</v>
+      </c>
+      <c r="E78" s="6" t="e" vm="77">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=5069</v>
-      </c>
-      <c r="E78" s="6" t="e" vm="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D5069</v>
       </c>
     </row>
@@ -4503,15 +4597,15 @@
         <v>78</v>
       </c>
       <c r="D79" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=6069</v>
+      </c>
+      <c r="E79" s="6" t="e" vm="78">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=6069</v>
-      </c>
-      <c r="E79" s="6" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D6069</v>
       </c>
     </row>
@@ -4526,15 +4620,15 @@
         <v>79</v>
       </c>
       <c r="D80" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=1101</v>
+      </c>
+      <c r="E80" s="6" t="e" vm="79">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=1101</v>
-      </c>
-      <c r="E80" s="6" t="e" vm="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D1101</v>
       </c>
     </row>
@@ -4549,15 +4643,15 @@
         <v>80</v>
       </c>
       <c r="D81" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=1006</v>
+      </c>
+      <c r="E81" s="6" t="e" vm="80">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=1006</v>
-      </c>
-      <c r="E81" s="6" t="e" vm="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D1006</v>
       </c>
     </row>
@@ -4572,15 +4666,15 @@
         <v>81</v>
       </c>
       <c r="D82" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=6119</v>
+      </c>
+      <c r="E82" s="6" t="e" vm="81">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=6119</v>
-      </c>
-      <c r="E82" s="6" t="e" vm="81">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D6119</v>
       </c>
     </row>
@@ -4595,15 +4689,15 @@
         <v>82</v>
       </c>
       <c r="D83" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3075</v>
+      </c>
+      <c r="E83" s="6" t="e" vm="82">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3075</v>
-      </c>
-      <c r="E83" s="6" t="e" vm="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3075</v>
       </c>
     </row>
@@ -4618,15 +4712,15 @@
         <v>83</v>
       </c>
       <c r="D84" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3071</v>
+      </c>
+      <c r="E84" s="6" t="e" vm="83">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3071</v>
-      </c>
-      <c r="E84" s="6" t="e" vm="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3071</v>
       </c>
     </row>
@@ -4641,15 +4735,15 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3087</v>
+      </c>
+      <c r="E85" s="6" t="e" vm="84">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3087</v>
-      </c>
-      <c r="E85" s="6" t="e" vm="84">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3087</v>
       </c>
     </row>
@@ -4664,15 +4758,15 @@
         <v>85</v>
       </c>
       <c r="D86" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3089</v>
+      </c>
+      <c r="E86" s="6" t="e" vm="85">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3089</v>
-      </c>
-      <c r="E86" s="6" t="e" vm="85">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3089</v>
       </c>
     </row>
@@ -4687,15 +4781,15 @@
         <v>86</v>
       </c>
       <c r="D87" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=5085</v>
+      </c>
+      <c r="E87" s="6" t="e" vm="86">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=5085</v>
-      </c>
-      <c r="E87" s="6" t="e" vm="86">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D5085</v>
       </c>
     </row>
@@ -4710,15 +4804,15 @@
         <v>87</v>
       </c>
       <c r="D88" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=4071</v>
+      </c>
+      <c r="E88" s="6" t="e" vm="87">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=4071</v>
-      </c>
-      <c r="E88" s="6" t="e" vm="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D4071</v>
       </c>
     </row>
@@ -4733,15 +4827,15 @@
         <v>88</v>
       </c>
       <c r="D89" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=4087</v>
+      </c>
+      <c r="E89" s="6" t="e" vm="88">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=4087</v>
-      </c>
-      <c r="E89" s="6" t="e" vm="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D4087</v>
       </c>
     </row>
@@ -4756,15 +4850,15 @@
         <v>89</v>
       </c>
       <c r="D90" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=1069</v>
+      </c>
+      <c r="E90" s="6" t="e" vm="89">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=1069</v>
-      </c>
-      <c r="E90" s="6" t="e" vm="89">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D1069</v>
       </c>
     </row>
@@ -4779,15 +4873,15 @@
         <v>90</v>
       </c>
       <c r="D91" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=2069</v>
+      </c>
+      <c r="E91" s="6" t="e" vm="90">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=2069</v>
-      </c>
-      <c r="E91" s="6" t="e" vm="90">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F91" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D2069</v>
       </c>
     </row>
@@ -4802,15 +4896,15 @@
         <v>91</v>
       </c>
       <c r="D92" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3069</v>
+      </c>
+      <c r="E92" s="6" t="e" vm="91">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3069</v>
-      </c>
-      <c r="E92" s="6" t="e" vm="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F92" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3069</v>
       </c>
     </row>
@@ -4825,15 +4919,15 @@
         <v>92</v>
       </c>
       <c r="D93" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=4069</v>
+      </c>
+      <c r="E93" s="6" t="e" vm="92">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=4069</v>
-      </c>
-      <c r="E93" s="6" t="e" vm="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F93" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D4069</v>
       </c>
     </row>
@@ -4848,15 +4942,15 @@
         <v>93</v>
       </c>
       <c r="D94" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=3101</v>
+      </c>
+      <c r="E94" s="6" t="e" vm="93">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=3101</v>
-      </c>
-      <c r="E94" s="6" t="e" vm="93">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F94" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D3101</v>
       </c>
     </row>
@@ -4871,15 +4965,15 @@
         <v>94</v>
       </c>
       <c r="D95" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=2101</v>
+      </c>
+      <c r="E95" s="6" t="e" vm="94">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=2101</v>
-      </c>
-      <c r="E95" s="6" t="e" vm="94">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F95" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D2101</v>
       </c>
     </row>
@@ -4894,15 +4988,15 @@
         <v>95</v>
       </c>
       <c r="D96" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>https://navit.vercel.app/home?source=4085</v>
+      </c>
+      <c r="E96" s="6" t="e" vm="95">
         <f t="shared" si="5"/>
-        <v>https://navit.vercel.app/home?source=4085</v>
-      </c>
-      <c r="E96" s="6" t="e" vm="95">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F96" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>https://api.qrserver.com/v1/create-qr-code/?size=150x150&amp;data=https%3A%2F%2Fnavit.vercel.app%2Fhome%3Fsource%3D4085</v>
       </c>
     </row>
